--- a/data/news_data.xlsx
+++ b/data/news_data.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhyoon\Desktop\MyApp\digitalviolence\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1212E01B-9FB2-41E4-A22F-0487C363AAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="4840" yWindow="1200" windowWidth="14150" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="뉴스"/>
-    <sheet r:id="rId2" sheetId="2" name="판례"/>
+    <sheet name="뉴스" sheetId="1" r:id="rId1"/>
+    <sheet name="판례" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>사건번호</t>
   </si>
@@ -71,64 +77,67 @@
     <t>날짜</t>
   </si>
   <si>
-    <t>디지털 성범죄 처벌 강화할까요?</t>
-  </si>
-  <si>
-    <t>정부가 디지털 성범죄 처벌을 강화하고 피해자 지원을 확대하는 종합대책을 발표했습니다.</t>
-  </si>
-  <si>
-    <t>https://www.mogef.go.kr/nw/rpd/nw_rpd_s001d.do?mid=news405</t>
-  </si>
-  <si>
-    <t>2024-01-15</t>
-  </si>
-  <si>
-    <t>몰라요</t>
-  </si>
-  <si>
-    <t>딥페이크를 이용한 성범죄가 증가하면서 관련 법률 개정과 수사기법 개발이 진행되고 있습니다.</t>
-  </si>
-  <si>
-    <t>https://www.police.go.kr/user/bbs/BD_selectBbs.do?q_bbsCode=1003&amp;q_bbscttSn=20210315153414344</t>
-  </si>
-  <si>
-    <t>2024-01-10</t>
-  </si>
-  <si>
-    <t>온라인 성착취 근절</t>
-  </si>
-  <si>
-    <t>텔레그램 성착취 사건 이후 온라인 성착취 근절을 위한 민관 협력이 강화되고 있습니다.</t>
-  </si>
-  <si>
-    <t>https://www.kwdi.re.kr/board/view.do?board_id=research_report&amp;cp=1&amp;board_seq=35683</t>
-  </si>
-  <si>
-    <t>2024-01-05</t>
-  </si>
-  <si>
-    <t>피해자 지원 확대</t>
-  </si>
-  <si>
-    <t>디지털 성범죄 피해자를 위한 심리치료, 법률지원, 삭제지원 등 통합지원 서비스가 확대되고 있습니다.</t>
-  </si>
-  <si>
-    <t>https://www.stop.or.kr/lay1/bbs/S1T1C113/A/26/view.do?article_seq=4531</t>
-  </si>
-  <si>
-    <t>2024-01-01</t>
+    <t>교육부, 교내 디지털성범죄 전문가 지원단 구성…100개교 점검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.yna.co.kr/view/AKR20250807045700530?input=1195m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육부는 불법 촬영·딥페이크 등 교내 디지털 성폭력 예방을 위해 성평등 전문가 100명으로 ‘포티켓 현장지원단’을 꾸려 전국 초·중·고 100개교의 취약 시설 점검과 학생 대상 예방·대응 교육을 실시하였다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유엔여성기구 “세계 여성 85%가 디지털 폭력 등 경험"... 여성 안전 강조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://news.cpbc.co.kr/article/1166042?division=NAVER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APEC 부대행사에서 유엔여성기구·여가부 등이 딥페이크 등 기술매개 젠더폭력 대응 강화를 촉구했다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산이젠센터, 디지털성범죄 피해자 변호사 선임비 지원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.newsis.com/view/NISX20250805_0003278873</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산시 여성폭력방지종합지원센터(이젠센터)가 올해부터 디지털성범죄 피해자를 대상으로 변호사 선임 비용을 지원하고 있다고 밝혔다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행안부, AI 딥페이크 분석모델 개발…디지털범죄 대응 역량 강화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행안부는 수사기관이 관련 증거물 분석에 어려움을 겪는 상황을 극복하기 위해, 딥페이크 의심 이미지·영상·음성의 진위를 판별하는 분석 모델을 개발하였다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.yna.co.kr/view/AKR20250730060900530?input=1195m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -137,6 +146,28 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,29 +202,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -204,10 +239,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -245,71 +280,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -337,7 +372,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -360,11 +395,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -373,13 +408,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -389,7 +424,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -398,7 +433,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -407,7 +442,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -415,10 +450,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -483,28 +518,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" activeCellId="1" sqref="B13:C13 B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" style="3" width="67.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="31.75" customWidth="1"/>
+    <col min="2" max="2" width="57.25" customWidth="1"/>
+    <col min="3" max="4" width="13.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
@@ -513,69 +549,76 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2">
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2">
+        <v>45874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
+      <c r="D5" s="2">
+        <v>45868</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{2BAD16AC-AD83-4108-B595-DF8EB074C680}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{7F21BD5C-0C04-421B-977F-8B53331C5699}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{27DE9E38-1955-419C-86F6-BE55D60817F3}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{EB536FAB-8B72-459A-B2E3-16C1FDEECC08}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -583,15 +626,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="4" width="13.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,49 +645,50 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/news_data.xlsx
+++ b/data/news_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhyoon\Desktop\MyApp\digitalviolence\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1212E01B-9FB2-41E4-A22F-0487C363AAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935C3665-E64C-47D8-B637-F7A2BD9A0903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="1200" windowWidth="14150" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="뉴스" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>사건번호</t>
   </si>
@@ -75,57 +75,33 @@
   </si>
   <si>
     <t>날짜</t>
-  </si>
-  <si>
-    <t>교육부, 교내 디지털성범죄 전문가 지원단 구성…100개교 점검</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.yna.co.kr/view/AKR20250807045700530?input=1195m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육부는 불법 촬영·딥페이크 등 교내 디지털 성폭력 예방을 위해 성평등 전문가 100명으로 ‘포티켓 현장지원단’을 꾸려 전국 초·중·고 100개교의 취약 시설 점검과 학생 대상 예방·대응 교육을 실시하였다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유엔여성기구 “세계 여성 85%가 디지털 폭력 등 경험"... 여성 안전 강조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://news.cpbc.co.kr/article/1166042?division=NAVER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>APEC 부대행사에서 유엔여성기구·여가부 등이 딥페이크 등 기술매개 젠더폭력 대응 강화를 촉구했다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산이젠센터, 디지털성범죄 피해자 변호사 선임비 지원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.newsis.com/view/NISX20250805_0003278873</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>내용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>부산시 여성폭력방지종합지원센터(이젠센터)가 올해부터 디지털성범죄 피해자를 대상으로 변호사 선임 비용을 지원하고 있다고 밝혔다.</t>
+    <t>"촉법소년 연 2만명 넘어, 디지털 성범죄 급증"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>행안부, AI 딥페이크 분석모델 개발…디지털범죄 대응 역량 강화</t>
+    <t>https://zdnet.co.kr/view/?no=20251006152437</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>행안부는 수사기관이 관련 증거물 분석에 어려움을 겪는 상황을 극복하기 위해, 딥페이크 의심 이미지·영상·음성의 진위를 판별하는 분석 모델을 개발하였다.</t>
+    <t>폭증하는 ‘딥페이크’ 성범죄, 모니터링 인력은 제자리 [국회 방청석]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.yna.co.kr/view/AKR20250730060900530?input=1195m</t>
+    <t>https://www.mk.co.kr/news/business/11433670</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시여성가족재단, '초등학생 대상 디지털 성범죄 예방' 교육</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.newsis.com/view/NISX20251013_0003360862</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -206,14 +182,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -522,25 +508,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" activeCellId="1" sqref="B13:C13 B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.75" customWidth="1"/>
     <col min="2" max="2" width="57.25" customWidth="1"/>
-    <col min="3" max="4" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>26</v>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
@@ -549,69 +535,48 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="5">
+        <v>45944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5">
+        <v>45938</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45876</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45877</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45874</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45868</v>
+      <c r="D4" s="5">
+        <v>45936</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{2BAD16AC-AD83-4108-B595-DF8EB074C680}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{7F21BD5C-0C04-421B-977F-8B53331C5699}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{27DE9E38-1955-419C-86F6-BE55D60817F3}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{EB536FAB-8B72-459A-B2E3-16C1FDEECC08}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{05A62B8A-AA36-4F09-84E3-9216521022BF}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{35BED76F-A6B1-4B3D-A3E4-CB8F1120A8B0}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{EC6ABB02-D08C-4F76-8183-0F2B8DE3ADF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -626,12 +591,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -659,7 +624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -673,7 +638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>

--- a/data/news_data.xlsx
+++ b/data/news_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhyoon\Desktop\MyApp\digitalviolence\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935C3665-E64C-47D8-B637-F7A2BD9A0903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C055F60-5758-4E6C-B9E3-55FB5EEFFA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="뉴스" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>사건번호</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>https://www.newsis.com/view/NISX20251013_0003360862</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시여성가족재단은 서울성동경찰서, 서울광진경찰서와 함께 초등학생을 대상으로 ‘우리 학교 전담경찰관이 알려주는 디지털 성범죄 예방 및 대응 교육’을 실시한다고 14일 밝혔다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 3년간 딥페이크 성범죄 영상물 심의 건수가 12배 가까이 폭증했지만, 이를 모니터링하는 인력은 사실상 제자리걸음인 것으로 나타났다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>촉법소년이 지난해 2만 명을 넘어섰다. 딥페이크를 비롯한 디지털 성범죄 피의자 가운데 10대가 70%에 가까인 비중을 차지한 점이 주목된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,13 +202,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -510,8 +519,8 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -536,38 +545,44 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>45944</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>45938</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>45936</v>
       </c>
     </row>
